--- a/Resources/数据集关系图.xlsx
+++ b/Resources/数据集关系图.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\HPU-PIP\HPU-PIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\HPU-PIP\HPU-PIP\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>测试集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-04-16日--2016-04-22日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在4-22以后下单的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下单(S-P)中商品的用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +155,14 @@
   </si>
   <si>
     <t>考察准确率Precise和召回率Recal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在4-20以后下单的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-04-16日--2016-04-20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,8 +861,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="椭圆 5">
@@ -955,7 +955,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="椭圆 5">
@@ -1257,8 +1257,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="椭圆 10">
@@ -1351,7 +1351,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="椭圆 10">
@@ -2300,7 +2300,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
-            <a:t>2016-04-16--2016-04-22</a:t>
+            <a:t>2016-04-16--2016-04-20</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
@@ -2614,7 +2614,7 @@
   <dimension ref="B1:B30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
@@ -2641,37 +2641,37 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
@@ -2681,97 +2681,97 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/数据集关系图.xlsx
+++ b/Resources/数据集关系图.xlsx
@@ -2304,7 +2304,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
-            <a:t>日</a:t>
+            <a:t>日 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2614,7 +2614,7 @@
   <dimension ref="B1:B30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Resources/数据集关系图.xlsx
+++ b/Resources/数据集关系图.xlsx
@@ -359,13 +359,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281494</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>99828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>150780</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>56194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -511,13 +511,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>624569</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>69770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>517079</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -700,13 +700,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -776,13 +776,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -852,13 +852,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1027,13 +1027,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1103,13 +1103,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1127,7 +1127,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5775960" y="2468880"/>
+          <a:off x="5775960" y="2567940"/>
           <a:ext cx="1798320" cy="1798320"/>
           <a:chOff x="5143500" y="2880360"/>
           <a:chExt cx="1798320" cy="1798320"/>
@@ -1248,13 +1248,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1423,13 +1423,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>17962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1480,13 +1480,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1537,13 +1537,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1594,13 +1594,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1653,13 +1653,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1739,13 +1739,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1819,13 +1819,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1905,13 +1905,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1927,7 +1927,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9060180" y="4160520"/>
+          <a:off x="9060180" y="4259580"/>
           <a:ext cx="1318260" cy="1539240"/>
           <a:chOff x="8115300" y="4168140"/>
           <a:chExt cx="1318260" cy="1386840"/>
@@ -2161,13 +2161,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2250,13 +2250,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2611,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B30"/>
+  <dimension ref="B1:B31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2624,153 +2624,154 @@
     <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+    <row r="23" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="24" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
     </row>
